--- a/Assets/DrawBounce/Tables/GameDataTable.xlsx
+++ b/Assets/DrawBounce/Tables/GameDataTable.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
+    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="GameLevel" sheetId="1" r:id="rId1"/>
-    <sheet name="ShopInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="GameLevel" sheetId="3" r:id="rId1"/>
+    <sheet name="TargetHeight" sheetId="1" r:id="rId2"/>
+    <sheet name="Shop" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +52,10 @@
   </si>
   <si>
     <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +441,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1036,12 +1571,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/DrawBounce/Tables/GameDataTable.xlsx
+++ b/Assets/DrawBounce/Tables/GameDataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GameLevel" sheetId="3" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>850</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1300</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1450</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
